--- a/sailing_allocation_output.xlsx
+++ b/sailing_allocation_output.xlsx
@@ -389,7 +389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -408,8 +408,7 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="32" customWidth="1" min="13" max="13"/>
+    <col width="32" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -487,11 +486,6 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
           <t>Beach</t>
         </is>
       </c>
@@ -514,29 +508,29 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>Glyn L</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Montague B</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Gail L</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
           <t>Mazie P</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>Cade H</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Montague B</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>Gail L</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>Jawad C</t>
-        </is>
-      </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
           <t>Cheryl O</t>
@@ -544,22 +538,17 @@
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
+          <t>Veronika W</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
           <t>Clay N</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>Glyn L</t>
-        </is>
-      </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>Veronika W</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>Roseanne B</t>
+          <t>Candice H</t>
         </is>
       </c>
     </row>
@@ -571,74 +560,69 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
+          <t>Enrico G
+George S
+Aidan H
+Rebekka D</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
           <t>Kamran M
-Habib T
-Priyanka H
-Milton F</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Gertrude N
-Saskia A</t>
+Jamila K</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Rebekka D</t>
+          <t>Habib T</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Mischa P</t>
+          <t>Rick H</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Enrico G</t>
+          <t>Ellena H</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Ammarah T</t>
+          <t>Priyanka H</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Arham S</t>
+          <t>Charlene L</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Connar M</t>
+          <t>Cain M</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Mahek M
-Ellena H</t>
+          <t>Ayat A
+Mischa P</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>George S
-Aidan H</t>
+          <t>Keon K
+Lennie M</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>Chace G
-Javier S</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>Benas B, Callie C, Rick H
-Callie C, Rick H, Keon K
-Rick H, Keon K, Charlene L
-Keon K, Charlene L, Ayat A
-Charlene L, Ayat A, Saeed K
-Lynda H</t>
+          <t xml:space="preserve">Connar M, Callie C, Javier S
+Callie C, Javier S, Chace G
+Javier S, Chace G, Milton F
+Chace G, Milton F, Gertrude N
+Milton F, Gertrude N, Ammarah T
+Gertrude N, Ammarah T, Adeeb M
+</t>
         </is>
       </c>
     </row>
@@ -650,74 +634,69 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Kamran M
-Habib T
-Priyanka H
-Milton F</t>
+          <t>Ridwan V
+Ayat A
+Benas B
+Saeed K</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
-Saskia A</t>
+          <t>Adeeb M
+Rick H</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Rebekka D</t>
+          <t>Milo R</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Mischa P</t>
+          <t>Chace G</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Enrico G</t>
+          <t>Arham S</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Ammarah T</t>
+          <t>Javier S</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>Arham S</t>
+          <t>Connar M</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Connar M</t>
+          <t>Callie C</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Mahek M
-Ellena H</t>
+          <t>Ellena H
+Enrico G</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>George S
-Aidan H</t>
+          <t>Saskia A
+Priyanka H</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>Chace G
-Javier S</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>Benas B, Callie C, Rick H
-Callie C, Rick H, Keon K
-Rick H, Keon K, Charlene L
-Keon K, Charlene L, Ayat A
-Charlene L, Ayat A, Saeed K
-Lynda H</t>
+          <t xml:space="preserve">George S, Jamila K, Mischa P
+Jamila K, Mischa P, Keon K
+Mischa P, Keon K, Rebekka D
+Keon K, Rebekka D, Charlene L
+Rebekka D, Charlene L, Cain M
+Charlene L, Cain M, Kamran M
+</t>
         </is>
       </c>
     </row>
@@ -729,74 +708,69 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Kamran M
-Habib T
-Priyanka H
-Milton F</t>
+          <t>Ammarah T
+Kamran M
+Lennie M
+Chace G</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
-Saskia A</t>
+          <t>Lynda H
+Priyanka H</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>Adeeb M</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Keon K</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>Rebekka D</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Ridwan V</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
         <is>
           <t>Mischa P</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Enrico G</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>Ammarah T</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Arham S</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Connar M</t>
+          <t>Milton F</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Mahek M
-Ellena H</t>
+          <t>Habib T
+Aidan H</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>George S
-Aidan H</t>
+          <t>Cain M
+Willie B</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Chace G
-Javier S</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>Benas B, Callie C, Rick H
-Callie C, Rick H, Keon K
-Rick H, Keon K, Charlene L
-Keon K, Charlene L, Ayat A
-Charlene L, Ayat A, Saeed K
-Lynda H</t>
+          <t xml:space="preserve">Ellena H, Enrico G, Rick H
+Enrico G, Rick H, Ayat A
+Rick H, Ayat A, Charlene L
+Ayat A, Charlene L, Saskia A
+Charlene L, Saskia A, Javier S
+Saskia A, Javier S, Milo R
+</t>
         </is>
       </c>
     </row>
@@ -926,62 +900,62 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>Cade H</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Cydney M</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
           <t>Tess K</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Cydney M</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Candice H</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Clay N</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>Scarlett M</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>Veronika W</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>Roseanne B</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Montague B</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>Mazie P</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Cade H</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Montague B</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>Gail L</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>Glyn L</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>Jawad C</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>Cheryl O</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>Clay N</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>Glyn L</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>Veronika W</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>Roseanne B</t>
         </is>
       </c>
     </row>
@@ -993,74 +967,74 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Ellena H
-Willie B
-George S
-Milo R</t>
+          <t>Saskia A
+Priyanka H
+Ellena H
+Cain M</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Keon K
-Rick H</t>
+          <t>Mahek M
+Keon K</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Ridwan V</t>
+          <t>Saeed K</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Lynda H</t>
+          <t>Kamran M</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Adeeb M</t>
+          <t>Jamila K</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Habib T</t>
+          <t>Enrico G</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Mischa P</t>
+          <t>Ayat A</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Ayat A</t>
+          <t>Gertrude N</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Finbar T
+          <t>George S
+Benas B</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>Ridwan V
+Ammarah T</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>Milo R
 Rebekka D</t>
         </is>
       </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>Gertrude N
-Priyanka H</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Milton F
-Mahek M</t>
-        </is>
-      </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>Javier S, Saskia A, Kamran M
-Saskia A, Kamran M, Callie C
-Kamran M, Callie C, Cain M
-Callie C, Cain M, Aidan H
-Cain M, Aidan H, Chace G
-Lennie M</t>
+          <t>Adeeb M, Chace G, Mischa P
+Chace G, Mischa P, Lennie M
+Mischa P, Lennie M, Habib T
+Lennie M, Habib T, Aidan H
+Habib T, Aidan H, Rick H
+Finbar T</t>
         </is>
       </c>
     </row>
@@ -1072,74 +1046,74 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Ellena H
-Willie B
-George S
-Milo R</t>
+          <t>Finbar T
+Lynda H
+Gertrude N
+Jamila K</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Keon K
-Rick H</t>
+          <t>Rebekka D
+Ellena H</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Ridwan V</t>
+          <t>Ammarah T</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Lynda H</t>
+          <t>Benas B</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Adeeb M</t>
+          <t>Mahek M</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Habib T</t>
+          <t>Aidan H</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>Mischa P</t>
+          <t>Saskia A</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Ayat A</t>
+          <t>Lennie M</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Finbar T
-Rebekka D</t>
+          <t>Saeed K
+Milton F</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
-Priyanka H</t>
+          <t>Javier S
+Chace G</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>Milton F
-Mahek M</t>
+          <t>Adeeb M
+Charlene L</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>Javier S, Saskia A, Kamran M
-Saskia A, Kamran M, Callie C
-Kamran M, Callie C, Cain M
-Callie C, Cain M, Aidan H
-Cain M, Aidan H, Chace G
-Lennie M</t>
+          <t>Priyanka H, Keon K, Cain M
+Keon K, Cain M, Ayat A
+Cain M, Ayat A, Ridwan V
+Ayat A, Ridwan V, Kamran M
+Ridwan V, Kamran M, Enrico G
+Connar M</t>
         </is>
       </c>
     </row>
@@ -1151,74 +1125,74 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Ellena H
-Willie B
-George S
-Milo R</t>
+          <t>Arham S
+Rick H
+Milo R
+Adeeb M</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Keon K
-Rick H</t>
+          <t>Ridwan V
+Lennie M</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Ridwan V</t>
+          <t>Lynda H</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Lynda H</t>
+          <t>George S</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Adeeb M</t>
+          <t>Willie B</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Habib T</t>
+          <t>Finbar T</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>Mischa P</t>
+          <t>Jamila K</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Ayat A</t>
+          <t>Kamran M</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Finbar T
-Rebekka D</t>
+          <t>Mahek M
+Callie C</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
           <t>Gertrude N
-Priyanka H</t>
+Connar M</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Milton F
-Mahek M</t>
+          <t>Chace G
+Charlene L</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>Javier S, Saskia A, Kamran M
-Saskia A, Kamran M, Callie C
-Kamran M, Callie C, Cain M
-Callie C, Cain M, Aidan H
-Cain M, Aidan H, Chace G
-Lennie M</t>
+          <t>Priyanka H, Ellena H, Rebekka D
+Ellena H, Rebekka D, Ayat A
+Rebekka D, Ayat A, Aidan H
+Ayat A, Aidan H, Cain M
+Aidan H, Cain M, Enrico G
+Mischa P</t>
         </is>
       </c>
     </row>
@@ -1348,62 +1322,62 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>Gail L</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Cydney M</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Jawad C</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Veronika W</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Glyn L</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>Montague B</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>Scarlett M</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>Candice H</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Cade H</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
           <t>Tess K</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Cydney M</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Mazie P</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Cade H</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Montague B</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>Gail L</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>Jawad C</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>Clay N</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>Cheryl O</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>Clay N</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>Glyn L</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>Veronika W</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>Roseanne B</t>
         </is>
       </c>
     </row>
@@ -1415,74 +1389,74 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Saeed K
-Ayat A
-Cain M
-Callie C</t>
+          <t>Callie C
+Javier S
+Connar M
+Mischa P</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Lennie M
-Ellena H</t>
+          <t>Saskia A
+Saeed K</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Chace G</t>
+          <t>Milton F</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>Willie B</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>Ridwan V</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>Ammarah T</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>Mahek M</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>Willie B</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>Gertrude N</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>Lynda H</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Rebekka D</t>
+          <t>Charlene L</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Charlene L
-Mischa P</t>
+          <t>Jamila K
+Kamran M</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>Jamila K
-Ridwan V</t>
+          <t>Lynda H
+Arham S</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>Aidan H
-Ammarah T</t>
+          <t>Rick H
+Finbar T</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>Priyanka H, Kamran M, Milton F
-Kamran M, Milton F, Habib T
-Milton F, Habib T, Saskia A
-Habib T, Saskia A, George S
-Saskia A, George S, Benas B
-Enrico G</t>
+          <t>Adeeb M, Chace G, Priyanka H
+Chace G, Priyanka H, Ellena H
+Priyanka H, Ellena H, Rebekka D
+Ellena H, Rebekka D, Lennie M
+Rebekka D, Lennie M, George S
+Habib T</t>
         </is>
       </c>
     </row>
@@ -1494,74 +1468,74 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Saeed K
-Ayat A
-Cain M
-Callie C</t>
+          <t>Willie B
+Habib T
+Keon K
+Mahek M</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Lennie M
-Ellena H</t>
+          <t>Benas B
+Javier S</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Chace G</t>
+          <t>Ellena H</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Mahek M</t>
+          <t>Mischa P</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Willie B</t>
+          <t>Rick H</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N</t>
+          <t>Milo R</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>Lynda H</t>
+          <t>Enrico G</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Rebekka D</t>
+          <t>Arham S</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Charlene L
-Mischa P</t>
+          <t>Ridwan V
+Adeeb M</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>Jamila K
-Ridwan V</t>
+          <t>Cain M
+Saskia A</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>Aidan H
-Ammarah T</t>
+          <t>Gertrude N
+Kamran M</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>Priyanka H, Kamran M, Milton F
-Kamran M, Milton F, Habib T
-Milton F, Habib T, Saskia A
-Habib T, Saskia A, George S
-Saskia A, George S, Benas B
-Enrico G</t>
+          <t>Jamila K, Saeed K, Rebekka D
+Saeed K, Rebekka D, Chace G
+Rebekka D, Chace G, Priyanka H
+Chace G, Priyanka H, Lynda H
+Priyanka H, Lynda H, Lennie M
+Milton F</t>
         </is>
       </c>
     </row>
@@ -1573,74 +1547,74 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Saeed K
-Ayat A
-Cain M
+          <t>Charlene L
+Milton F
+Jamila K
+Rick H</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>Connar M
+Aidan H</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Ayat A</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Chace G</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Saeed K</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Finbar T</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Lynda H</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Cain M</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>Rebekka D
+George S</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>Lennie M
+Mischa P</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>Mahek M
+Javier S</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>Kamran M, Ridwan V, Ellena H
+Ridwan V, Ellena H, Adeeb M
+Ellena H, Adeeb M, Saskia A
+Adeeb M, Saskia A, Arham S
+Saskia A, Arham S, Priyanka H
 Callie C</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Lennie M
-Ellena H</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Chace G</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Mahek M</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Willie B</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>Gertrude N</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Lynda H</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>Rebekka D</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Charlene L
-Mischa P</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>Jamila K
-Ridwan V</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>Aidan H
-Ammarah T</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>Priyanka H, Kamran M, Milton F
-Kamran M, Milton F, Habib T
-Milton F, Habib T, Saskia A
-Habib T, Saskia A, George S
-Saskia A, George S, Benas B
-Enrico G</t>
         </is>
       </c>
     </row>
@@ -1770,62 +1744,62 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>Montague B</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Cydney M</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Mazie P</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Cade H</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Jawad C</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>Gail L</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>Clay N</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>Roseanne B</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Veronika W</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
           <t>Tess K</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Cydney M</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>Mazie P</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Cade H</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Montague B</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>Gail L</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>Jawad C</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>Cheryl O</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>Clay N</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>Glyn L</t>
         </is>
       </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>Veronika W</t>
-        </is>
-      </c>
       <c r="M4" s="1" t="inlineStr">
         <is>
-          <t>Roseanne B</t>
+          <t>Scarlett M</t>
         </is>
       </c>
     </row>
@@ -1837,74 +1811,74 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
-Ridwan V
-Milton F
-Rick H</t>
+          <t>Connar M
+Lynda H
+Rebekka D
+Enrico G</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Charlene L
-Cain M</t>
+          <t>Ayat A
+Charlene L</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Enrico G</t>
+          <t>Habib T</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Ammarah T</t>
+          <t>Keon K</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Keon K</t>
+          <t>Gertrude N</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Javier S</t>
+          <t>Saskia A</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Finbar T</t>
+          <t>Priyanka H</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Mahek M</t>
+          <t>Callie C</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Milo R
-Ayat A</t>
+          <t>Rick H
+Milton F</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>Kamran M
-Priyanka H</t>
+          <t>Ellena H
+Saeed K</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>Habib T
-Saskia A</t>
+          <t>Ammarah T
+Arham S</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>Chace G, Callie C, Jamila K
-Callie C, Jamila K, George S
-Jamila K, George S, Ellena H
-George S, Ellena H, Rebekka D
-Ellena H, Rebekka D, Benas B
-Willie B</t>
+          <t>Ridwan V, Mahek M, Kamran M
+Mahek M, Kamran M, Jamila K
+Kamran M, Jamila K, Javier S
+Jamila K, Javier S, Mischa P
+Javier S, Mischa P, Adeeb M
+Aidan H</t>
         </is>
       </c>
     </row>
@@ -1916,74 +1890,74 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
+          <t>Aidan H
+Milton F
 Ridwan V
-Milton F
-Rick H</t>
+Ammarah T</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Charlene L
-Cain M</t>
+          <t>Arham S
+Finbar T</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Enrico G</t>
+          <t>Lennie M</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Ammarah T</t>
+          <t>Benas B</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Keon K</t>
+          <t>Adeeb M</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>Javier S</t>
+          <t>Rebekka D</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>Finbar T</t>
+          <t>George S</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Mahek M</t>
+          <t>Connar M</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Milo R
-Ayat A</t>
+          <t>Priyanka H
+Willie B</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>Kamran M
-Priyanka H</t>
+          <t>Callie C
+Milo R</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>Habib T
-Saskia A</t>
+          <t>Keon K
+Lynda H</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>Chace G, Callie C, Jamila K
-Callie C, Jamila K, George S
-Jamila K, George S, Ellena H
-George S, Ellena H, Rebekka D
-Ellena H, Rebekka D, Benas B
-Willie B</t>
+          <t>Rick H, Saeed K, Mahek M
+Saeed K, Mahek M, Kamran M
+Mahek M, Kamran M, Saskia A
+Kamran M, Saskia A, Charlene L
+Saskia A, Charlene L, Ellena H
+Habib T</t>
         </is>
       </c>
     </row>
@@ -1995,74 +1969,74 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
-Ridwan V
-Milton F
-Rick H</t>
+          <t>George S
+Chace G
+Saskia A
+Charlene L</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Charlene L
-Cain M</t>
+          <t>Enrico G
+Willie B</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Enrico G</t>
+          <t>Javier S</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Ammarah T</t>
+          <t>Aidan H</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Keon K</t>
+          <t>Benas B</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Javier S</t>
+          <t>Ayat A</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>Finbar T</t>
+          <t>Jamila K</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Mahek M</t>
+          <t>Rick H</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>Habib T
+Connar M</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>Finbar T
+Keon K</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
           <t>Milo R
-Ayat A</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>Kamran M
-Priyanka H</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>Habib T
-Saskia A</t>
+Rebekka D</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>Chace G, Callie C, Jamila K
-Callie C, Jamila K, George S
-Jamila K, George S, Ellena H
-George S, Ellena H, Rebekka D
-Ellena H, Rebekka D, Benas B
-Willie B</t>
+          <t>Ridwan V, Lynda H, Priyanka H
+Lynda H, Priyanka H, Adeeb M
+Priyanka H, Adeeb M, Ammarah T
+Adeeb M, Ammarah T, Milton F
+Ammarah T, Milton F, Arham S
+Mischa P</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2096,8 +2070,7 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="32" customWidth="1" min="13" max="13"/>
+    <col width="32" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2175,11 +2148,6 @@
       </c>
       <c r="L3" s="1" t="inlineStr">
         <is>
-          <t>Cat 3</t>
-        </is>
-      </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
           <t>Beach</t>
         </is>
       </c>
@@ -2202,34 +2170,34 @@
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
+          <t>Cheryl O</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Gail L</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Montague B</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>Veronika W</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
           <t>Mazie P</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="I4" s="1" t="inlineStr">
         <is>
           <t>Cade H</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Montague B</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>Gail L</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>Jawad C</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>Cheryl O</t>
-        </is>
-      </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
           <t>Clay N</t>
@@ -2241,11 +2209,6 @@
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>Veronika W</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>Roseanne B</t>
         </is>
@@ -2259,74 +2222,69 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Habib T
-Keon K
-Connar M
-Lynda H</t>
+          <t>Willie B
+Mischa P
+Cain M
+Milo R</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Benas B
-Willie B</t>
+          <t>Milton F
+Ammarah T</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Ellena H</t>
+          <t>Lynda H</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Jamila K</t>
+          <t>Javier S</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Enrico G</t>
+          <t>Gertrude N</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Adeeb M</t>
+          <t>Connar M</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>Aidan H</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>Arham S</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>Cain M</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
-Saeed K</t>
+          <t>Ayat A
+Benas B</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>Javier S
-Ridwan V</t>
+          <t>Enrico G
+Jamila K</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>Lennie M
-Ammarah T</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>Finbar T, Charlene L, Priyanka H
-Charlene L, Priyanka H, George S
-Priyanka H, George S, Milo R
-George S, Milo R, Rick H
-Milo R, Rick H, Callie C
-Mischa P</t>
+          <t xml:space="preserve">Rebekka D, Rick H, Keon K
+Rick H, Keon K, Charlene L
+Keon K, Charlene L, Saskia A
+Charlene L, Saskia A, Ridwan V
+Saskia A, Ridwan V, Adeeb M
+Ridwan V, Adeeb M, George S
+</t>
         </is>
       </c>
     </row>
@@ -2338,31 +2296,31 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Habib T
-Keon K
-Connar M
-Lynda H</t>
+          <t>Keon K
+Finbar T
+Arham S
+Callie C</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>Benas B
-Willie B</t>
+          <t>Mischa P
+Gertrude N</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>Ellena H</t>
+          <t>Saeed K</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>Jamila K</t>
+          <t>Saskia A</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>Enrico G</t>
+          <t>Milton F</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -2372,40 +2330,35 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>Arham S</t>
+          <t>Habib T</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>Cain M</t>
+          <t>Lennie M</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
-Saeed K</t>
+          <t>Aidan H
+Ayat A</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>Javier S
-Ridwan V</t>
+          <t>George S
+Mahek M</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>Lennie M
-Ammarah T</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>Finbar T, Charlene L, Priyanka H
-Charlene L, Priyanka H, George S
-Priyanka H, George S, Milo R
-George S, Milo R, Rick H
-Milo R, Rick H, Callie C
-Mischa P</t>
+          <t xml:space="preserve">Lynda H, Jamila K, Rick H
+Jamila K, Rick H, Connar M
+Rick H, Connar M, Rebekka D
+Connar M, Rebekka D, Enrico G
+Rebekka D, Enrico G, Willie B
+Enrico G, Willie B, Ridwan V
+</t>
         </is>
       </c>
     </row>
@@ -2417,74 +2370,69 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
+          <t>Ayat A
+Saeed K
+Gertrude N
+Ellena H</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
           <t>Habib T
-Keon K
-Connar M
-Lynda H</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>Benas B
-Willie B</t>
+Cain M</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Ellena H</t>
+          <t>Rebekka D</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Jamila K</t>
+          <t>Milo R</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Enrico G</t>
+          <t>Chace G</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Adeeb M</t>
+          <t>Priyanka H</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>Arham S</t>
+          <t>Ammarah T</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Cain M</t>
+          <t>Keon K</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
-Saeed K</t>
+          <t>Milton F
+Lennie M</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>Javier S
-Ridwan V</t>
+          <t>Arham S
+Kamran M</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Lennie M
-Ammarah T</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>Finbar T, Charlene L, Priyanka H
-Charlene L, Priyanka H, George S
-Priyanka H, George S, Milo R
-George S, Milo R, Rick H
-Milo R, Rick H, Callie C
-Mischa P</t>
+          <t xml:space="preserve">Jamila K, Lynda H, Rick H
+Lynda H, Rick H, Connar M
+Rick H, Connar M, Aidan H
+Connar M, Aidan H, Saskia A
+Aidan H, Saskia A, Benas B
+Saskia A, Benas B, Adeeb M
+</t>
         </is>
       </c>
     </row>
@@ -2614,62 +2562,62 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>Cade H</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Cydney M</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
           <t>Tess K</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Cydney M</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Roseanne B</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>Candice H</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>Cheryl O</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>Jawad C</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>Scarlett M</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Gail L</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>Mazie P</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Cade H</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>Montague B</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>Gail L</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>Jawad C</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>Cheryl O</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>Clay N</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>Glyn L</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>Veronika W</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>Roseanne B</t>
         </is>
       </c>
     </row>
@@ -2681,74 +2629,74 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Priyanka H
-Rebekka D
-Gertrude N
-Javier S</t>
+          <t>Javier S
+Adeeb M
+Lennie M
+Priyanka H</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Mischa P
-Finbar T</t>
+          <t>George S
+Milo R</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Saskia A</t>
+          <t>Ellena H</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Lynda H</t>
+          <t>Enrico G</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>Cain M</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>Callie C</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>Jamila K</t>
-        </is>
-      </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Mahek M</t>
+          <t>Ridwan V</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Enrico G</t>
+          <t>Finbar T</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Aidan H
-George S</t>
+          <t>Benas B
+Aidan H</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>Arham S
-Benas B</t>
+          <t>Jamila K
+Mischa P</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>Saeed K
-Adeeb M</t>
+          <t>Rick H
+Habib T</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>Cain M, Habib T, Ayat A
-Habib T, Ayat A, Charlene L
-Ayat A, Charlene L, Kamran M
-Charlene L, Kamran M, Connar M
-Kamran M, Connar M, Ammarah T
-Keon K</t>
+          <t>Keon K, Ayat A, Rebekka D
+Ayat A, Rebekka D, Arham S
+Rebekka D, Arham S, Milton F
+Arham S, Milton F, Saskia A
+Milton F, Saskia A, Lynda H
+Willie B</t>
         </is>
       </c>
     </row>
@@ -2760,74 +2708,74 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Priyanka H
-Rebekka D
-Gertrude N
+          <t>Kamran M
+Mahek M
+Habib T
+Benas B</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Callie C
+Chace G</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Mischa P</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>George S</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Charlene L</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Willie B</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Ayat A</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Saskia A</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Ridwan V
+Ellena H</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>Saeed K
+Cain M</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>Gertrude N
+Enrico G</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>Rebekka D, Aidan H, Lennie M
+Aidan H, Lennie M, Milton F
+Lennie M, Milton F, Milo R
+Milton F, Milo R, Jamila K
+Milo R, Jamila K, Arham S
 Javier S</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Mischa P
-Finbar T</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Saskia A</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Lynda H</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Callie C</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Jamila K</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Mahek M</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>Enrico G</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Aidan H
-George S</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>Arham S
-Benas B</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>Saeed K
-Adeeb M</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>Cain M, Habib T, Ayat A
-Habib T, Ayat A, Charlene L
-Ayat A, Charlene L, Kamran M
-Charlene L, Kamran M, Connar M
-Kamran M, Connar M, Ammarah T
-Keon K</t>
         </is>
       </c>
     </row>
@@ -2839,74 +2787,74 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Priyanka H
-Rebekka D
-Gertrude N
-Javier S</t>
+          <t>Ridwan V
+Charlene L
+Arham S
+Adeeb M</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Mischa P
+          <t>Benas B
+George S</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Kamran M</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>Mahek M</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>Rebekka D</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>Connar M</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>Priyanka H</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>Javier S</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>Chace G
+Willie B</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>Lynda H
+Saskia A</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>Callie C
+Ammarah T</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>Ayat A, Keon K, Jamila K
+Keon K, Jamila K, Ellena H
+Jamila K, Ellena H, Milton F
+Ellena H, Milton F, Aidan H
+Milton F, Aidan H, Cain M
 Finbar T</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>Saskia A</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>Lynda H</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>Callie C</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>Jamila K</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>Mahek M</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>Enrico G</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>Aidan H
-George S</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>Arham S
-Benas B</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>Saeed K
-Adeeb M</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>Cain M, Habib T, Ayat A
-Habib T, Ayat A, Charlene L
-Ayat A, Charlene L, Kamran M
-Charlene L, Kamran M, Connar M
-Kamran M, Connar M, Ammarah T
-Keon K</t>
         </is>
       </c>
     </row>
@@ -3036,62 +2984,62 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
+          <t>Gail L</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Cydney M</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Glyn L</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>Clay N</t>
+        </is>
+      </c>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
           <t>Tess K</t>
         </is>
       </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Cydney M</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
+        <is>
+          <t>Scarlett M</t>
+        </is>
+      </c>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>Montague B</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>Jawad C</t>
+        </is>
+      </c>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>Cade H</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="inlineStr">
+        <is>
+          <t>Veronika W</t>
+        </is>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
         <is>
           <t>Mazie P</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>Cade H</t>
-        </is>
-      </c>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Montague B</t>
-        </is>
-      </c>
-      <c r="G4" s="1" t="inlineStr">
-        <is>
-          <t>Gail L</t>
-        </is>
-      </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>Jawad C</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="M4" s="1" t="inlineStr">
         <is>
           <t>Cheryl O</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="inlineStr">
-        <is>
-          <t>Clay N</t>
-        </is>
-      </c>
-      <c r="K4" s="1" t="inlineStr">
-        <is>
-          <t>Glyn L</t>
-        </is>
-      </c>
-      <c r="L4" s="1" t="inlineStr">
-        <is>
-          <t>Veronika W</t>
-        </is>
-      </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>Roseanne B</t>
         </is>
       </c>
     </row>
@@ -3103,74 +3051,74 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Habib T
-Connar M
-Mahek M
-Rick H</t>
+          <t>Saskia A
+Chace G
+Lynda H
+Ammarah T</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>Ellena H
-Ridwan V</t>
+          <t>Willie B
+Jamila K</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Ayat A</t>
+          <t>Callie C</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>Aidan H</t>
+          <t>Benas B</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>Charlene L</t>
+          <t>George S</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>Lynda H</t>
+          <t>Ellena H</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>Cain M</t>
+          <t>Saeed K</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>Benas B</t>
+          <t>Arham S</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>Kamran M
-Rebekka D</t>
+          <t>Connar M
+Finbar T</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>Keon K
-Mischa P</t>
+          <t>Adeeb M
+Priyanka H</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
-Lennie M</t>
+          <t>Javier S
+Charlene L</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>Saeed K, Adeeb M, Javier S
-Adeeb M, Javier S, Finbar T
-Javier S, Finbar T, Chace G
-Finbar T, Chace G, Milton F
-Chace G, Milton F, Willie B
-Milo R</t>
+          <t>Ridwan V, Ayat A, Rebekka D
+Ayat A, Rebekka D, Kamran M
+Rebekka D, Kamran M, Mahek M
+Kamran M, Mahek M, Habib T
+Mahek M, Habib T, Mischa P
+Milton F</t>
         </is>
       </c>
     </row>
@@ -3182,74 +3130,74 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
+          <t>Priyanka H
+Lennie M
+Mahek M
+Enrico G</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>Finbar T
+Cain M</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Charlene L</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>Mischa P</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>Chace G</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>Milo R</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>Jamila K</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>Ridwan V</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>Ellena H
+George S</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>Habib T
-Connar M
-Mahek M
-Rick H</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>Ellena H
-Ridwan V</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>Ayat A</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>Aidan H</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>Charlene L</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>Lynda H</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>Cain M</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>Benas B</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>Kamran M
-Rebekka D</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>Keon K
-Mischa P</t>
+Arham S</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
-Lennie M</t>
+          <t>Rebekka D
+Saeed K</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>Saeed K, Adeeb M, Javier S
-Adeeb M, Javier S, Finbar T
-Javier S, Finbar T, Chace G
-Finbar T, Chace G, Milton F
-Chace G, Milton F, Willie B
-Milo R</t>
+          <t>Benas B, Saskia A, Adeeb M
+Saskia A, Adeeb M, Javier S
+Adeeb M, Javier S, Ayat A
+Javier S, Ayat A, Lynda H
+Ayat A, Lynda H, Connar M
+Keon K</t>
         </is>
       </c>
     </row>
@@ -3261,36 +3209,36 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Habib T
-Connar M
-Mahek M
-Rick H</t>
+          <t>Benas B
+Saeed K
+Javier S
+Aidan H</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>Ellena H
-Ridwan V</t>
+          <t>Adeeb M
+Charlene L</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>Ayat A</t>
+          <t>Willie B</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>Aidan H</t>
+          <t>Ammarah T</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>Charlene L</t>
+          <t>Rick H</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>Lynda H</t>
+          <t>Milton F</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -3300,35 +3248,35 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>Benas B</t>
+          <t>Finbar T</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>Kamran M
-Rebekka D</t>
+          <t>Mischa P
+Chace G</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>Keon K
-Mischa P</t>
+          <t>Lynda H
+Priyanka H</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>Gertrude N
-Lennie M</t>
+          <t>Callie C
+Enrico G</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>Saeed K, Adeeb M, Javier S
-Adeeb M, Javier S, Finbar T
-Javier S, Finbar T, Chace G
-Finbar T, Chace G, Milton F
-Chace G, Milton F, Willie B
-Milo R</t>
+          <t>Arham S, George S, Ellena H
+George S, Ellena H, Jamila K
+Ellena H, Jamila K, Rebekka D
+Jamila K, Rebekka D, Ridwan V
+Rebekka D, Ridwan V, Saskia A
+Keon K</t>
         </is>
       </c>
     </row>
